--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H2">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.493006</v>
+        <v>0.3951603333333333</v>
       </c>
       <c r="N2">
-        <v>82.47901800000001</v>
+        <v>1.185481</v>
       </c>
       <c r="O2">
-        <v>0.6421229928833974</v>
+        <v>0.02514070644417849</v>
       </c>
       <c r="P2">
-        <v>0.6421229928833974</v>
+        <v>0.02514070644417849</v>
       </c>
       <c r="Q2">
-        <v>377.730505891894</v>
+        <v>3.052210116299667</v>
       </c>
       <c r="R2">
-        <v>3399.574553027046</v>
+        <v>27.469891046697</v>
       </c>
       <c r="S2">
-        <v>0.3936241701940564</v>
+        <v>0.0118423319767288</v>
       </c>
       <c r="T2">
-        <v>0.3936241701940564</v>
+        <v>0.0118423319767288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H3">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.125623</v>
       </c>
       <c r="O3">
-        <v>0.03990445644190353</v>
+        <v>0.1086999987233279</v>
       </c>
       <c r="P3">
-        <v>0.03990445644190353</v>
+        <v>0.1086999987233279</v>
       </c>
       <c r="Q3">
-        <v>23.473899371609</v>
+        <v>13.196734804639</v>
       </c>
       <c r="R3">
-        <v>211.265094344481</v>
+        <v>118.770613241751</v>
       </c>
       <c r="S3">
-        <v>0.02446160428465055</v>
+        <v>0.05120227920443823</v>
       </c>
       <c r="T3">
-        <v>0.02446160428465055</v>
+        <v>0.05120227920443822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H4">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.842742</v>
       </c>
       <c r="O4">
-        <v>0.3179725506746992</v>
+        <v>0.8661592948324937</v>
       </c>
       <c r="P4">
-        <v>0.3179725506746992</v>
+        <v>0.8661592948324937</v>
       </c>
       <c r="Q4">
-        <v>187.0481726355193</v>
+        <v>105.1561605034727</v>
       </c>
       <c r="R4">
-        <v>1683.433553719674</v>
+        <v>946.405444531254</v>
       </c>
       <c r="S4">
-        <v>0.1949185479899862</v>
+        <v>0.407997521346934</v>
       </c>
       <c r="T4">
-        <v>0.1949185479899862</v>
+        <v>0.407997521346934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.493006</v>
+        <v>0.3951603333333333</v>
       </c>
       <c r="N5">
-        <v>82.47901800000001</v>
+        <v>1.185481</v>
       </c>
       <c r="O5">
-        <v>0.6421229928833974</v>
+        <v>0.02514070644417849</v>
       </c>
       <c r="P5">
-        <v>0.6421229928833974</v>
+        <v>0.02514070644417849</v>
       </c>
       <c r="Q5">
-        <v>110.9077942808867</v>
+        <v>1.594091273878889</v>
       </c>
       <c r="R5">
-        <v>998.1701485279801</v>
+        <v>14.34682146491</v>
       </c>
       <c r="S5">
-        <v>0.1155744315349563</v>
+        <v>0.006184947086593988</v>
       </c>
       <c r="T5">
-        <v>0.1155744315349563</v>
+        <v>0.006184947086593988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.125623</v>
       </c>
       <c r="O6">
-        <v>0.03990445644190353</v>
+        <v>0.1086999987233279</v>
       </c>
       <c r="P6">
-        <v>0.03990445644190353</v>
+        <v>0.1086999987233279</v>
       </c>
       <c r="Q6">
         <v>6.892317040503333</v>
@@ -818,10 +818,10 @@
         <v>62.03085336453</v>
       </c>
       <c r="S6">
-        <v>0.007182323199913673</v>
+        <v>0.02674164076929882</v>
       </c>
       <c r="T6">
-        <v>0.007182323199913673</v>
+        <v>0.02674164076929882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.842742</v>
       </c>
       <c r="O7">
-        <v>0.3179725506746992</v>
+        <v>0.8661592948324937</v>
       </c>
       <c r="P7">
-        <v>0.3179725506746992</v>
+        <v>0.8661592948324937</v>
       </c>
       <c r="Q7">
         <v>54.92037293173555</v>
@@ -880,10 +880,10 @@
         <v>494.28335638562</v>
       </c>
       <c r="S7">
-        <v>0.05723124260498452</v>
+        <v>0.2130866695808789</v>
       </c>
       <c r="T7">
-        <v>0.05723124260498452</v>
+        <v>0.2130866695808789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.493006</v>
+        <v>0.3951603333333333</v>
       </c>
       <c r="N8">
-        <v>82.47901800000001</v>
+        <v>1.185481</v>
       </c>
       <c r="O8">
-        <v>0.6421229928833974</v>
+        <v>0.02514070644417849</v>
       </c>
       <c r="P8">
-        <v>0.6421229928833974</v>
+        <v>0.02514070644417849</v>
       </c>
       <c r="Q8">
-        <v>127.5572013054087</v>
+        <v>1.833395234661222</v>
       </c>
       <c r="R8">
-        <v>1148.014811748678</v>
+        <v>16.500557111951</v>
       </c>
       <c r="S8">
-        <v>0.1329243911543846</v>
+        <v>0.007113427380855698</v>
       </c>
       <c r="T8">
-        <v>0.1329243911543846</v>
+        <v>0.007113427380855698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>5.125623</v>
       </c>
       <c r="O9">
-        <v>0.03990445644190353</v>
+        <v>0.1086999987233279</v>
       </c>
       <c r="P9">
-        <v>0.03990445644190353</v>
+        <v>0.1086999987233279</v>
       </c>
       <c r="Q9">
         <v>7.926987259070333</v>
@@ -1004,10 +1004,10 @@
         <v>71.342885331633</v>
       </c>
       <c r="S9">
-        <v>0.00826052895733931</v>
+        <v>0.03075607874959086</v>
       </c>
       <c r="T9">
-        <v>0.00826052895733931</v>
+        <v>0.03075607874959086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>40.842742</v>
       </c>
       <c r="O10">
-        <v>0.3179725506746992</v>
+        <v>0.8661592948324937</v>
       </c>
       <c r="P10">
-        <v>0.3179725506746992</v>
+        <v>0.8661592948324937</v>
       </c>
       <c r="Q10">
         <v>63.16498413158688</v>
@@ -1066,10 +1066,10 @@
         <v>568.484857184282</v>
       </c>
       <c r="S10">
-        <v>0.06582276007972852</v>
+        <v>0.2450751039046809</v>
       </c>
       <c r="T10">
-        <v>0.06582276007972852</v>
+        <v>0.2450751039046809</v>
       </c>
     </row>
   </sheetData>
